--- a/Homework-01/Tugas 7.xlsx
+++ b/Homework-01/Tugas 7.xlsx
@@ -1,114 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="8910" yWindow="2295" windowWidth="13845" windowHeight="13185" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
-  <si>
-    <t>Nama</t>
-  </si>
-  <si>
-    <t>NPM</t>
-  </si>
-  <si>
-    <t>Jenis Kelamin</t>
-  </si>
-  <si>
-    <t>Tempat Lahir</t>
-  </si>
-  <si>
-    <t>Tanggal Lahir</t>
-  </si>
-  <si>
-    <t>No HP</t>
-  </si>
-  <si>
-    <t>Hendriawan Alfitodinova</t>
-  </si>
-  <si>
-    <t>Made Devinda Adyapti</t>
-  </si>
-  <si>
-    <t>Siti Shafa Adilah</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>Laki-Laki</t>
-  </si>
-  <si>
-    <t>Perempuan</t>
-  </si>
-  <si>
-    <t>Jakarta</t>
-  </si>
-  <si>
-    <t>Bogor</t>
-  </si>
-  <si>
-    <t>24 Desember 2001</t>
-  </si>
-  <si>
-    <t>17 Febuari 2003</t>
-  </si>
-  <si>
-    <t>20 Juni 2002</t>
-  </si>
-  <si>
-    <t>082249329428</t>
-  </si>
-  <si>
-    <t>085719750846</t>
-  </si>
-  <si>
-    <t>08180754099</t>
-  </si>
-  <si>
-    <t>08xxxxxxxxx</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -116,36 +49,89 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -192,7 +178,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -224,9 +210,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -258,6 +262,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -433,112 +455,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>2006570050</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>2006483712</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>2006572301</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
+    <row r="1">
+      <c r="A1" s="1" t="n"/>
+      <c r="B1" s="1" t="n"/>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Homework-01/Tugas 7.xlsx
+++ b/Homework-01/Tugas 7.xlsx
@@ -1,47 +1,102 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="8910" yWindow="2295" windowWidth="13845" windowHeight="13185" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+  <si>
+    <t>Nama</t>
+  </si>
+  <si>
+    <t>NPM</t>
+  </si>
+  <si>
+    <t>Jenis Kelamin</t>
+  </si>
+  <si>
+    <t>Tempat Lahir</t>
+  </si>
+  <si>
+    <t>Tanggal Lahir</t>
+  </si>
+  <si>
+    <t>No HP</t>
+  </si>
+  <si>
+    <t>HENDRI</t>
+  </si>
+  <si>
+    <t>JDWDJIW</t>
+  </si>
+  <si>
+    <t>1313131312312</t>
+  </si>
+  <si>
+    <t>3131432423</t>
+  </si>
+  <si>
+    <t>LAKI-LAKI</t>
+  </si>
+  <si>
+    <t>FWFW</t>
+  </si>
+  <si>
+    <t>JAKARTA</t>
+  </si>
+  <si>
+    <t>243 DEDWDW1 31</t>
+  </si>
+  <si>
+    <t>1231 EWFE24</t>
+  </si>
+  <si>
+    <t>0823018321</t>
+  </si>
+  <si>
+    <t>4243243224</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -49,89 +104,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -178,7 +180,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -210,27 +212,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -262,24 +246,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -455,26 +421,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="n"/>
-      <c r="B1" s="1" t="n"/>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="n"/>
-      <c r="F1" s="1" t="n"/>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
